--- a/rowsecurity/行セキュリティポリシー調査.xlsx
+++ b/rowsecurity/行セキュリティポリシー調査.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566D0FE5-07A6-4B15-BF21-57AE1012E9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C1417-0BCD-42DE-A12F-A8FB36390558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="メンバ資格" sheetId="2" r:id="rId1"/>
+    <sheet name="RLS" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>行セキュリティポリシーの動作確認</t>
     <rPh sb="0" eb="1">
@@ -437,6 +437,80 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U rank4 -p 5432 -d hrdb -c "explain select * from rank_tbl r, employee_tbl e where r.rank_id = e.rank_id; "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        QUERY PLAN</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hash Join  (cost=33.94..59.48 rows=410 width=72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hash Cond: (e.rank_id = r.rank_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt;  Seq Scan on employee_tbl e  (cost=0.00..22.30 rows=1230 width=38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt;  Hash  (cost=28.48..28.48 rows=437 width=34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         -&gt;  Bitmap Heap Scan on rank_tbl r  (cost=7.55..28.48 rows=437 width=34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Recheck Cond: (rank_id &gt; ("right"((CURRENT_USER)::text, 1))::smallint)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               -&gt;  Bitmap Index Scan on rank_tbl_pkey  (cost=0.00..7.44 rows=437 width=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Index Cond: (rank_id &gt; ("right"((CURRENT_USER)::text, 1))::smallint)</t>
+  </si>
+  <si>
+    <t>(8 行)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                QUERY PLAN</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hash Join  (cost=39.48..65.01 rows=1230 width=72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt;  Hash  (cost=23.10..23.10 rows=1310 width=34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         -&gt;  Seq Scan on rank_tbl r  (cost=0.00..23.10 rows=1310 width=34)</t>
+  </si>
+  <si>
+    <t>(5 行)</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d hrdb -c "explain select * from rank_tbl r, employee_tbl e where r.rank_id = e.rank_id; "</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9)クエリプランの比較。RLSが適用されるロールは条件が追加されている。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -980,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
-  <dimension ref="B1:I74"/>
+  <dimension ref="B1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1688,6 +1762,149 @@
         <v>45</v>
       </c>
     </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="16" customFormat="1">
+      <c r="B77" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="2:9" s="16" customFormat="1">
+      <c r="B78" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="2:9" s="16" customFormat="1">
+      <c r="B79" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:9" s="16" customFormat="1">
+      <c r="B80" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="2:6" s="16" customFormat="1">
+      <c r="B81" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="2:6" s="16" customFormat="1">
+      <c r="B82" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="2:6" s="16" customFormat="1">
+      <c r="B83" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="2:6" s="16" customFormat="1">
+      <c r="B84" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6" s="16" customFormat="1">
+      <c r="B85" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="2:6" s="16" customFormat="1">
+      <c r="B86" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="2:6" s="16" customFormat="1">
+      <c r="B87" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="2:6" s="16" customFormat="1">
+      <c r="B88" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="2:6" s="16" customFormat="1">
+      <c r="B89" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="2:6" s="16" customFormat="1">
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="2:6" s="16" customFormat="1">
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="2:6" s="16" customFormat="1">
+      <c r="B92" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" spans="2:6" s="16" customFormat="1">
+      <c r="B93" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="2:6" s="16" customFormat="1">
+      <c r="B94" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="2:6" s="16" customFormat="1">
+      <c r="B95" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="2:6" s="16" customFormat="1">
+      <c r="B96" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="2:6" s="16" customFormat="1">
+      <c r="B97" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="2:6" s="16" customFormat="1">
+      <c r="B98" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" spans="2:6" s="16" customFormat="1">
+      <c r="B99" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="2:6" s="16" customFormat="1">
+      <c r="B100" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
